--- a/Code/Results/Cases/Case_6_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_3/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03910540848521</v>
+        <v>1.053883338136465</v>
       </c>
       <c r="D2">
-        <v>1.053207713760633</v>
+        <v>1.066887051355269</v>
       </c>
       <c r="E2">
-        <v>1.049455655166185</v>
+        <v>1.0626759963797</v>
       </c>
       <c r="F2">
-        <v>1.059864604141928</v>
+        <v>1.073587142745315</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058759620126053</v>
+        <v>1.069085928843214</v>
       </c>
       <c r="J2">
-        <v>1.06017623883218</v>
+        <v>1.074563744918851</v>
       </c>
       <c r="K2">
-        <v>1.063972399118017</v>
+        <v>1.077487032008949</v>
       </c>
       <c r="L2">
-        <v>1.060266450542585</v>
+        <v>1.07332611947574</v>
       </c>
       <c r="M2">
-        <v>1.070548478703678</v>
+        <v>1.084108346193512</v>
       </c>
       <c r="N2">
-        <v>1.061681810695235</v>
+        <v>1.07608974869082</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046266508553516</v>
+        <v>1.059749138231727</v>
       </c>
       <c r="D3">
-        <v>1.058835437753063</v>
+        <v>1.071561127474279</v>
       </c>
       <c r="E3">
-        <v>1.05551231574996</v>
+        <v>1.067626370340772</v>
       </c>
       <c r="F3">
-        <v>1.066001838014709</v>
+        <v>1.078691261271258</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061079876341299</v>
+        <v>1.071296420361369</v>
       </c>
       <c r="J3">
-        <v>1.065570718380983</v>
+        <v>1.078733661464493</v>
       </c>
       <c r="K3">
-        <v>1.068767036727553</v>
+        <v>1.081353476865197</v>
       </c>
       <c r="L3">
-        <v>1.065480958064551</v>
+        <v>1.077461340337967</v>
       </c>
       <c r="M3">
-        <v>1.075854517310742</v>
+        <v>1.088407347986862</v>
       </c>
       <c r="N3">
-        <v>1.067083951023754</v>
+        <v>1.080265586996253</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050774322989074</v>
+        <v>1.063457272364189</v>
       </c>
       <c r="D4">
-        <v>1.062380132386579</v>
+        <v>1.074518460100583</v>
       </c>
       <c r="E4">
-        <v>1.059329963349591</v>
+        <v>1.070760589314173</v>
       </c>
       <c r="F4">
-        <v>1.06987013095448</v>
+        <v>1.08192286929575</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06252904460024</v>
+        <v>1.072684683880778</v>
       </c>
       <c r="J4">
-        <v>1.068962725184185</v>
+        <v>1.081366131016606</v>
       </c>
       <c r="K4">
-        <v>1.071779757193412</v>
+        <v>1.083793601822341</v>
       </c>
       <c r="L4">
-        <v>1.068761416648413</v>
+        <v>1.080073901882892</v>
       </c>
       <c r="M4">
-        <v>1.079192536305328</v>
+        <v>1.091123743254252</v>
       </c>
       <c r="N4">
-        <v>1.070480774865685</v>
+        <v>1.082901794957079</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052640832351629</v>
+        <v>1.064996141540226</v>
       </c>
       <c r="D5">
-        <v>1.063848270013621</v>
+        <v>1.075746303825357</v>
       </c>
       <c r="E5">
-        <v>1.060911836252585</v>
+        <v>1.072062377799275</v>
       </c>
       <c r="F5">
-        <v>1.071472949478702</v>
+        <v>1.083265119754151</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063126297169696</v>
+        <v>1.073258581748615</v>
       </c>
       <c r="J5">
-        <v>1.070366265572947</v>
+        <v>1.08245769827036</v>
       </c>
       <c r="K5">
-        <v>1.073025831647582</v>
+        <v>1.084805220011465</v>
       </c>
       <c r="L5">
-        <v>1.070119178147245</v>
+        <v>1.081157687648469</v>
       </c>
       <c r="M5">
-        <v>1.080574110526094</v>
+        <v>1.092250687991319</v>
       </c>
       <c r="N5">
-        <v>1.071886308442787</v>
+        <v>1.083994912361538</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052952595066397</v>
+        <v>1.065253375027327</v>
       </c>
       <c r="D6">
-        <v>1.064093514859817</v>
+        <v>1.075951578111959</v>
       </c>
       <c r="E6">
-        <v>1.061176120677003</v>
+        <v>1.072280044212749</v>
       </c>
       <c r="F6">
-        <v>1.071740730808954</v>
+        <v>1.083489552326991</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063225890447614</v>
+        <v>1.073354380885543</v>
       </c>
       <c r="J6">
-        <v>1.070600640768907</v>
+        <v>1.082640107642425</v>
       </c>
       <c r="K6">
-        <v>1.073233880403963</v>
+        <v>1.084974257696249</v>
       </c>
       <c r="L6">
-        <v>1.0703459306953</v>
+        <v>1.081338824366816</v>
       </c>
       <c r="M6">
-        <v>1.080804839088332</v>
+        <v>1.092439042970009</v>
       </c>
       <c r="N6">
-        <v>1.072121016478409</v>
+        <v>1.084177580775834</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050799373681178</v>
+        <v>1.063477912363463</v>
       </c>
       <c r="D7">
-        <v>1.062399834933696</v>
+        <v>1.074534926366157</v>
       </c>
       <c r="E7">
-        <v>1.05935118950843</v>
+        <v>1.070778045230898</v>
       </c>
       <c r="F7">
-        <v>1.069891638333601</v>
+        <v>1.081940867728113</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062537071526692</v>
+        <v>1.072692390116452</v>
       </c>
       <c r="J7">
-        <v>1.068981566162137</v>
+        <v>1.081380775225274</v>
       </c>
       <c r="K7">
-        <v>1.071796486468344</v>
+        <v>1.083807174225939</v>
       </c>
       <c r="L7">
-        <v>1.068779641615366</v>
+        <v>1.080088439831618</v>
       </c>
       <c r="M7">
-        <v>1.079211080957542</v>
+        <v>1.091138859805126</v>
       </c>
       <c r="N7">
-        <v>1.070499642599987</v>
+        <v>1.082916459962202</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041552583687378</v>
+        <v>1.055884375899196</v>
       </c>
       <c r="D8">
-        <v>1.055130381958867</v>
+        <v>1.068480973990485</v>
       </c>
       <c r="E8">
-        <v>1.051524290719847</v>
+        <v>1.064363710182056</v>
       </c>
       <c r="F8">
-        <v>1.061960785532363</v>
+        <v>1.075327261792931</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059554892415394</v>
+        <v>1.069841900018671</v>
       </c>
       <c r="J8">
-        <v>1.062020455616013</v>
+        <v>1.075986983962173</v>
       </c>
       <c r="K8">
-        <v>1.065611980319418</v>
+        <v>1.078806847353558</v>
       </c>
       <c r="L8">
-        <v>1.062048792444762</v>
+        <v>1.0747370935216</v>
       </c>
       <c r="M8">
-        <v>1.072362107236301</v>
+        <v>1.085575127269152</v>
       </c>
       <c r="N8">
-        <v>1.063528646478436</v>
+        <v>1.077515008896831</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024217213936341</v>
+        <v>1.041790475102711</v>
       </c>
       <c r="D9">
-        <v>1.04152373713124</v>
+        <v>1.057268010996939</v>
       </c>
       <c r="E9">
-        <v>1.036895873526455</v>
+        <v>1.052499451928867</v>
       </c>
       <c r="F9">
-        <v>1.047137225111462</v>
+        <v>1.063094819989122</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053874714902653</v>
+        <v>1.064480146407471</v>
       </c>
       <c r="J9">
-        <v>1.048942857035941</v>
+        <v>1.065949157231518</v>
       </c>
       <c r="K9">
-        <v>1.053977220649752</v>
+        <v>1.069495589363266</v>
       </c>
       <c r="L9">
-        <v>1.049417416879162</v>
+        <v>1.064794548771573</v>
       </c>
       <c r="M9">
-        <v>1.059509176785179</v>
+        <v>1.075240933409106</v>
       </c>
       <c r="N9">
-        <v>1.050432476208359</v>
+        <v>1.067462927300864</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011840085250922</v>
+        <v>1.031849086766082</v>
       </c>
       <c r="D10">
-        <v>1.031830817924599</v>
+        <v>1.049379044218021</v>
       </c>
       <c r="E10">
-        <v>1.026488577221411</v>
+        <v>1.044162744141188</v>
       </c>
       <c r="F10">
-        <v>1.036590964932097</v>
+        <v>1.0544996808244</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049762510964836</v>
+        <v>1.060652690145986</v>
       </c>
       <c r="J10">
-        <v>1.039591690903568</v>
+        <v>1.058853671991869</v>
       </c>
       <c r="K10">
-        <v>1.045648195014742</v>
+        <v>1.062910525182657</v>
       </c>
       <c r="L10">
-        <v>1.040395493792078</v>
+        <v>1.057777920911973</v>
       </c>
       <c r="M10">
-        <v>1.050329558998257</v>
+        <v>1.067950031717963</v>
       </c>
       <c r="N10">
-        <v>1.041068030347485</v>
+        <v>1.060357365658311</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006255102410506</v>
+        <v>1.027398557661198</v>
       </c>
       <c r="D11">
-        <v>1.027464078136674</v>
+        <v>1.045853231411211</v>
       </c>
       <c r="E11">
-        <v>1.021802910833656</v>
+        <v>1.040439192418777</v>
       </c>
       <c r="F11">
-        <v>1.031842816864691</v>
+        <v>1.050660773030514</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047894525470892</v>
+        <v>1.058929119308834</v>
       </c>
       <c r="J11">
-        <v>1.035369957321296</v>
+        <v>1.055674332268749</v>
       </c>
       <c r="K11">
-        <v>1.041886004587624</v>
+        <v>1.059959303461055</v>
       </c>
       <c r="L11">
-        <v>1.036325045295643</v>
+        <v>1.054636759239037</v>
       </c>
       <c r="M11">
-        <v>1.046188211704988</v>
+        <v>1.06468661752681</v>
       </c>
       <c r="N11">
-        <v>1.036840301419287</v>
+        <v>1.057173510908108</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004143677036635</v>
+        <v>1.025721973610013</v>
       </c>
       <c r="D12">
-        <v>1.025814444441453</v>
+        <v>1.044525987214586</v>
       </c>
       <c r="E12">
-        <v>1.020033204064411</v>
+        <v>1.03903785748933</v>
       </c>
       <c r="F12">
-        <v>1.030049535296108</v>
+        <v>1.04921603574558</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047186558381589</v>
+        <v>1.058278366780119</v>
       </c>
       <c r="J12">
-        <v>1.033773698457187</v>
+        <v>1.054476263648881</v>
       </c>
       <c r="K12">
-        <v>1.040463246253541</v>
+        <v>1.058847122349577</v>
       </c>
       <c r="L12">
-        <v>1.034786407023329</v>
+        <v>1.053453515091813</v>
       </c>
       <c r="M12">
-        <v>1.044622822151545</v>
+        <v>1.063457404946638</v>
       </c>
       <c r="N12">
-        <v>1.035241775684496</v>
+        <v>1.055973740893381</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004598307860746</v>
+        <v>1.026082694580784</v>
       </c>
       <c r="D13">
-        <v>1.026169584084978</v>
+        <v>1.044811500758381</v>
       </c>
       <c r="E13">
-        <v>1.020414175543328</v>
+        <v>1.039339293828128</v>
       </c>
       <c r="F13">
-        <v>1.030435580556575</v>
+        <v>1.049526807702533</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047339075537257</v>
+        <v>1.058418442438646</v>
       </c>
       <c r="J13">
-        <v>1.034117411773519</v>
+        <v>1.054734046101099</v>
       </c>
       <c r="K13">
-        <v>1.040769611638909</v>
+        <v>1.059086427912295</v>
       </c>
       <c r="L13">
-        <v>1.035117693940639</v>
+        <v>1.053708087880894</v>
       </c>
       <c r="M13">
-        <v>1.044959866547343</v>
+        <v>1.06372186396798</v>
       </c>
       <c r="N13">
-        <v>1.035585977113162</v>
+        <v>1.056231889426248</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.006081343122954</v>
+        <v>1.027260458719723</v>
       </c>
       <c r="D14">
-        <v>1.027328295888164</v>
+        <v>1.045743886730042</v>
       </c>
       <c r="E14">
-        <v>1.021657237184554</v>
+        <v>1.040323736838349</v>
       </c>
       <c r="F14">
-        <v>1.031695202106379</v>
+        <v>1.050541741312523</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047836298733819</v>
+        <v>1.058875546527912</v>
       </c>
       <c r="J14">
-        <v>1.035238597243087</v>
+        <v>1.055575655212738</v>
       </c>
       <c r="K14">
-        <v>1.041768927268269</v>
+        <v>1.059867701811485</v>
       </c>
       <c r="L14">
-        <v>1.0361984183261</v>
+        <v>1.054539294221278</v>
       </c>
       <c r="M14">
-        <v>1.046059382101572</v>
+        <v>1.06458536434242</v>
       </c>
       <c r="N14">
-        <v>1.036708754794699</v>
+        <v>1.05707469371936</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00699010213112</v>
+        <v>1.027982960778248</v>
       </c>
       <c r="D15">
-        <v>1.028038486515945</v>
+        <v>1.046315993785047</v>
       </c>
       <c r="E15">
-        <v>1.022419179886691</v>
+        <v>1.040927830998447</v>
       </c>
       <c r="F15">
-        <v>1.032467298764616</v>
+        <v>1.051164547229049</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048140752611816</v>
+        <v>1.059155768133622</v>
       </c>
       <c r="J15">
-        <v>1.035925600817354</v>
+        <v>1.056091896680045</v>
       </c>
       <c r="K15">
-        <v>1.042381222895533</v>
+        <v>1.060346924472222</v>
       </c>
       <c r="L15">
-        <v>1.036860685258345</v>
+        <v>1.055049212650935</v>
       </c>
       <c r="M15">
-        <v>1.046733170992652</v>
+        <v>1.065115105131177</v>
       </c>
       <c r="N15">
-        <v>1.037396733992842</v>
+        <v>1.057591668308764</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012205739297578</v>
+        <v>1.032141252012078</v>
       </c>
       <c r="D16">
-        <v>1.032116872381935</v>
+        <v>1.049610635062634</v>
       </c>
       <c r="E16">
-        <v>1.026795581734907</v>
+        <v>1.044407371758763</v>
       </c>
       <c r="F16">
-        <v>1.03690206587941</v>
+        <v>1.054751888552232</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049884560454763</v>
+        <v>1.060765632956074</v>
       </c>
       <c r="J16">
-        <v>1.039868055844247</v>
+        <v>1.059062333297333</v>
       </c>
       <c r="K16">
-        <v>1.045894440117832</v>
+        <v>1.063104203951572</v>
       </c>
       <c r="L16">
-        <v>1.040662011780601</v>
+        <v>1.057984136549138</v>
       </c>
       <c r="M16">
-        <v>1.050600725253657</v>
+        <v>1.068164284476944</v>
       </c>
       <c r="N16">
-        <v>1.041344787758078</v>
+        <v>1.060566323286762</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015414948140767</v>
+        <v>1.034709542300352</v>
       </c>
       <c r="D17">
-        <v>1.034628279598897</v>
+        <v>1.051647123990393</v>
       </c>
       <c r="E17">
-        <v>1.029491244984734</v>
+        <v>1.046558767242255</v>
       </c>
       <c r="F17">
-        <v>1.039633708696652</v>
+        <v>1.056969955995442</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050954350599814</v>
+        <v>1.061757321167669</v>
       </c>
       <c r="J17">
-        <v>1.04229337467424</v>
+        <v>1.060896262446145</v>
       </c>
       <c r="K17">
-        <v>1.048055220698716</v>
+        <v>1.064806385863833</v>
       </c>
       <c r="L17">
-        <v>1.043001216910709</v>
+        <v>1.059796894475679</v>
       </c>
       <c r="M17">
-        <v>1.052980757174375</v>
+        <v>1.070047754258707</v>
       </c>
       <c r="N17">
-        <v>1.043773550818999</v>
+        <v>1.06240285682532</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01726527982284</v>
+        <v>1.036193622635439</v>
       </c>
       <c r="D18">
-        <v>1.036076930371016</v>
+        <v>1.052824454858649</v>
       </c>
       <c r="E18">
-        <v>1.03104645559808</v>
+        <v>1.047802752742552</v>
       </c>
       <c r="F18">
-        <v>1.041209684155685</v>
+        <v>1.05825249942643</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051569983193938</v>
+        <v>1.062329405596739</v>
       </c>
       <c r="J18">
-        <v>1.043691527543348</v>
+        <v>1.061955719252301</v>
       </c>
       <c r="K18">
-        <v>1.049300689178341</v>
+        <v>1.065789675695532</v>
       </c>
       <c r="L18">
-        <v>1.044349973940033</v>
+        <v>1.06084438878779</v>
       </c>
       <c r="M18">
-        <v>1.05435307706592</v>
+        <v>1.07113615929747</v>
       </c>
       <c r="N18">
-        <v>1.045173689225551</v>
+        <v>1.063463818181663</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017892626565698</v>
+        <v>1.036697332586668</v>
       </c>
       <c r="D19">
-        <v>1.036568194430771</v>
+        <v>1.053224141911887</v>
       </c>
       <c r="E19">
-        <v>1.031573903620683</v>
+        <v>1.048225106581034</v>
       </c>
       <c r="F19">
-        <v>1.04174417545588</v>
+        <v>1.058687945449083</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051778508503885</v>
+        <v>1.062523411439656</v>
       </c>
       <c r="J19">
-        <v>1.044165526051307</v>
+        <v>1.06231525970562</v>
       </c>
       <c r="K19">
-        <v>1.049722893036962</v>
+        <v>1.066123357822655</v>
       </c>
       <c r="L19">
-        <v>1.044807267703071</v>
+        <v>1.061199914784305</v>
       </c>
       <c r="M19">
-        <v>1.054818363301931</v>
+        <v>1.071505579079101</v>
       </c>
       <c r="N19">
-        <v>1.045648360865759</v>
+        <v>1.063823869223666</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015072879640279</v>
+        <v>1.034435443742817</v>
       </c>
       <c r="D20">
-        <v>1.034360520822438</v>
+        <v>1.051429723628013</v>
       </c>
       <c r="E20">
-        <v>1.029203812924082</v>
+        <v>1.046329077025466</v>
       </c>
       <c r="F20">
-        <v>1.039342439406541</v>
+        <v>1.056733146957942</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050840443509326</v>
+        <v>1.061651583351426</v>
       </c>
       <c r="J20">
-        <v>1.042034882008846</v>
+        <v>1.060700565999805</v>
       </c>
       <c r="K20">
-        <v>1.047824941529302</v>
+        <v>1.064624753816299</v>
       </c>
       <c r="L20">
-        <v>1.042751876492616</v>
+        <v>1.059603429282063</v>
       </c>
       <c r="M20">
-        <v>1.05272706252178</v>
+        <v>1.069846737167682</v>
       </c>
       <c r="N20">
-        <v>1.04351469106437</v>
+        <v>1.062206882467581</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.005645671288793</v>
+        <v>1.026914297274861</v>
       </c>
       <c r="D21">
-        <v>1.026987865416015</v>
+        <v>1.045469817466368</v>
       </c>
       <c r="E21">
-        <v>1.021292013668801</v>
+        <v>1.040034356307426</v>
       </c>
       <c r="F21">
-        <v>1.031325112386911</v>
+        <v>1.05024339764954</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047690277022487</v>
+        <v>1.058741236744692</v>
       </c>
       <c r="J21">
-        <v>1.034909231139678</v>
+        <v>1.055328303837108</v>
       </c>
       <c r="K21">
-        <v>1.04147536910076</v>
+        <v>1.059638085044784</v>
       </c>
       <c r="L21">
-        <v>1.035880926614044</v>
+        <v>1.054294988118832</v>
       </c>
       <c r="M21">
-        <v>1.045736368549364</v>
+        <v>1.064331564154475</v>
       </c>
       <c r="N21">
-        <v>1.036378920953645</v>
+        <v>1.056826991076405</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9995030643523899</v>
+        <v>1.022048851796232</v>
       </c>
       <c r="D22">
-        <v>1.022191259118028</v>
+        <v>1.041620140569557</v>
       </c>
       <c r="E22">
-        <v>1.016147015191608</v>
+        <v>1.035970421064876</v>
       </c>
       <c r="F22">
-        <v>1.026111634073716</v>
+        <v>1.046053615400818</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045627405343204</v>
+        <v>1.056850065812529</v>
       </c>
       <c r="J22">
-        <v>1.030265083795223</v>
+        <v>1.051850904381989</v>
       </c>
       <c r="K22">
-        <v>1.037335559018864</v>
+        <v>1.056409851459954</v>
       </c>
       <c r="L22">
-        <v>1.031405242573197</v>
+        <v>1.050861459754218</v>
       </c>
       <c r="M22">
-        <v>1.041182974744282</v>
+        <v>1.060764805488686</v>
       </c>
       <c r="N22">
-        <v>1.031728178387269</v>
+        <v>1.053344653315197</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002780895792533</v>
+        <v>1.02464161977977</v>
       </c>
       <c r="D23">
-        <v>1.024750088131264</v>
+        <v>1.043671030829523</v>
       </c>
       <c r="E23">
-        <v>1.018891487129303</v>
+        <v>1.038135270833199</v>
       </c>
       <c r="F23">
-        <v>1.028892617338383</v>
+        <v>1.048285497257181</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046729128701487</v>
+        <v>1.057858633889641</v>
       </c>
       <c r="J23">
-        <v>1.032743376195128</v>
+        <v>1.053704161599219</v>
       </c>
       <c r="K23">
-        <v>1.039544844273978</v>
+        <v>1.058130352044779</v>
       </c>
       <c r="L23">
-        <v>1.033793397617299</v>
+        <v>1.052691091566751</v>
       </c>
       <c r="M23">
-        <v>1.043612563161167</v>
+        <v>1.062665385387331</v>
       </c>
       <c r="N23">
-        <v>1.034209990246646</v>
+        <v>1.055200542370247</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015227512029931</v>
+        <v>1.034559340108679</v>
       </c>
       <c r="D24">
-        <v>1.034481559424716</v>
+        <v>1.051527989918916</v>
       </c>
       <c r="E24">
-        <v>1.029333743847504</v>
+        <v>1.046432897706599</v>
       </c>
       <c r="F24">
-        <v>1.039474104891636</v>
+        <v>1.056840185347094</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050891938975649</v>
+        <v>1.061699381300832</v>
       </c>
       <c r="J24">
-        <v>1.042151734528945</v>
+        <v>1.060789024376716</v>
       </c>
       <c r="K24">
-        <v>1.047929040609372</v>
+        <v>1.064706855005049</v>
       </c>
       <c r="L24">
-        <v>1.042864590941099</v>
+        <v>1.059690878260895</v>
       </c>
       <c r="M24">
-        <v>1.052841745234476</v>
+        <v>1.069937599554483</v>
       </c>
       <c r="N24">
-        <v>1.04363170952845</v>
+        <v>1.062295466465533</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028833824308463</v>
+        <v>1.045525059103046</v>
       </c>
       <c r="D25">
-        <v>1.045144143501044</v>
+        <v>1.060236056098882</v>
       </c>
       <c r="E25">
-        <v>1.040785753260341</v>
+        <v>1.055638055148461</v>
       </c>
       <c r="F25">
-        <v>1.051079052565155</v>
+        <v>1.066330776178205</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055397389590245</v>
+        <v>1.06590890646471</v>
       </c>
       <c r="J25">
-        <v>1.052428309497411</v>
+        <v>1.068611789504198</v>
       </c>
       <c r="K25">
-        <v>1.057079863466932</v>
+        <v>1.071966086111633</v>
       </c>
       <c r="L25">
-        <v>1.052782276040341</v>
+        <v>1.067429968432615</v>
       </c>
       <c r="M25">
-        <v>1.062932997345698</v>
+        <v>1.077979810710937</v>
       </c>
       <c r="N25">
-        <v>1.053922878412112</v>
+        <v>1.07012934081678</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_3/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053883338136465</v>
+        <v>1.030215002950589</v>
       </c>
       <c r="D2">
-        <v>1.066887051355269</v>
+        <v>1.045779487858577</v>
       </c>
       <c r="E2">
-        <v>1.0626759963797</v>
+        <v>1.042329847662301</v>
       </c>
       <c r="F2">
-        <v>1.073587142745315</v>
+        <v>1.052734493625398</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.069085928843214</v>
+        <v>1.057342786817564</v>
       </c>
       <c r="J2">
-        <v>1.074563744918851</v>
+        <v>1.05152807418226</v>
       </c>
       <c r="K2">
-        <v>1.077487032008949</v>
+        <v>1.056635860360937</v>
       </c>
       <c r="L2">
-        <v>1.07332611947574</v>
+        <v>1.053229353386045</v>
       </c>
       <c r="M2">
-        <v>1.084108346193512</v>
+        <v>1.063504971981846</v>
       </c>
       <c r="N2">
-        <v>1.07608974869082</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.020645202432585</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.051116607932939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.059749138231727</v>
+        <v>1.034238412133367</v>
       </c>
       <c r="D3">
-        <v>1.071561127474279</v>
+        <v>1.048587969415357</v>
       </c>
       <c r="E3">
-        <v>1.067626370340772</v>
+        <v>1.045581794347156</v>
       </c>
       <c r="F3">
-        <v>1.078691261271258</v>
+        <v>1.056067638570467</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.071296420361369</v>
+        <v>1.058467822784771</v>
       </c>
       <c r="J3">
-        <v>1.078733661464493</v>
+        <v>1.053837309170493</v>
       </c>
       <c r="K3">
-        <v>1.081353476865197</v>
+        <v>1.058634728478465</v>
       </c>
       <c r="L3">
-        <v>1.077461340337967</v>
+        <v>1.055662864928746</v>
       </c>
       <c r="M3">
-        <v>1.088407347986862</v>
+        <v>1.066030070650457</v>
       </c>
       <c r="N3">
-        <v>1.080265586996253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.021440842392842</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.052527315762984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.063457272364189</v>
+        <v>1.036797401408269</v>
       </c>
       <c r="D4">
-        <v>1.074518460100583</v>
+        <v>1.050378552882007</v>
       </c>
       <c r="E4">
-        <v>1.070760589314173</v>
+        <v>1.047655702968706</v>
       </c>
       <c r="F4">
-        <v>1.08192286929575</v>
+        <v>1.058193365217791</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.072684683880778</v>
+        <v>1.059176484863502</v>
       </c>
       <c r="J4">
-        <v>1.081366131016606</v>
+        <v>1.055304468825981</v>
       </c>
       <c r="K4">
-        <v>1.083793601822341</v>
+        <v>1.059904720793937</v>
       </c>
       <c r="L4">
-        <v>1.080073901882892</v>
+        <v>1.057211074658232</v>
       </c>
       <c r="M4">
-        <v>1.091123743254252</v>
+        <v>1.067636736261379</v>
       </c>
       <c r="N4">
-        <v>1.082901794957079</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.02194621983998</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.053426159450166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.064996141540226</v>
+        <v>1.037867227319116</v>
       </c>
       <c r="D5">
-        <v>1.075746303825357</v>
+        <v>1.051130154554708</v>
       </c>
       <c r="E5">
-        <v>1.072062377799275</v>
+        <v>1.048524706683011</v>
       </c>
       <c r="F5">
-        <v>1.083265119754151</v>
+        <v>1.059084340995335</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.073258581748615</v>
+        <v>1.059472776214314</v>
       </c>
       <c r="J5">
-        <v>1.08245769827036</v>
+        <v>1.055919185309216</v>
       </c>
       <c r="K5">
-        <v>1.084805220011465</v>
+        <v>1.060438163917031</v>
       </c>
       <c r="L5">
-        <v>1.081157687648469</v>
+        <v>1.05785991680314</v>
       </c>
       <c r="M5">
-        <v>1.092250687991319</v>
+        <v>1.068310318275705</v>
       </c>
       <c r="N5">
-        <v>1.083994912361538</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.022158421904834</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.053810375552251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.065253375027327</v>
+        <v>1.038051534616269</v>
       </c>
       <c r="D6">
-        <v>1.075951578111959</v>
+        <v>1.051262144789705</v>
       </c>
       <c r="E6">
-        <v>1.072280044212749</v>
+        <v>1.048675297217897</v>
       </c>
       <c r="F6">
-        <v>1.083489552326991</v>
+        <v>1.059239044043303</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.073354380885543</v>
+        <v>1.059525798323662</v>
       </c>
       <c r="J6">
-        <v>1.082640107642425</v>
+        <v>1.056027189739411</v>
       </c>
       <c r="K6">
-        <v>1.084974257696249</v>
+        <v>1.060533503913302</v>
       </c>
       <c r="L6">
-        <v>1.081338824366816</v>
+        <v>1.057973539152907</v>
       </c>
       <c r="M6">
-        <v>1.092439042970009</v>
+        <v>1.068428513573758</v>
       </c>
       <c r="N6">
-        <v>1.084177580775834</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.022196300569558</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.053886371150425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.063477912363463</v>
+        <v>1.036825954780415</v>
       </c>
       <c r="D7">
-        <v>1.074534926366157</v>
+        <v>1.05040516837206</v>
       </c>
       <c r="E7">
-        <v>1.070778045230898</v>
+        <v>1.047681061752472</v>
       </c>
       <c r="F7">
-        <v>1.081940867728113</v>
+        <v>1.058220169034518</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.072692390116452</v>
+        <v>1.059189989834192</v>
       </c>
       <c r="J7">
-        <v>1.081380775225274</v>
+        <v>1.055326595606472</v>
       </c>
       <c r="K7">
-        <v>1.083807174225939</v>
+        <v>1.059928241458004</v>
       </c>
       <c r="L7">
-        <v>1.080088439831618</v>
+        <v>1.057233340628751</v>
       </c>
       <c r="M7">
-        <v>1.091138859805126</v>
+        <v>1.067660475820096</v>
       </c>
       <c r="N7">
-        <v>1.082916459962202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.021955484904494</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.053462538210765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.055884375899196</v>
+        <v>1.031602065016282</v>
       </c>
       <c r="D8">
-        <v>1.068480973990485</v>
+        <v>1.046754959550263</v>
       </c>
       <c r="E8">
-        <v>1.064363710182056</v>
+        <v>1.043452571978353</v>
       </c>
       <c r="F8">
-        <v>1.075327261792931</v>
+        <v>1.05388619008881</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.069841900018671</v>
+        <v>1.057739030208032</v>
       </c>
       <c r="J8">
-        <v>1.075986983962173</v>
+        <v>1.052331652125913</v>
       </c>
       <c r="K8">
-        <v>1.078806847353558</v>
+        <v>1.057336767900861</v>
       </c>
       <c r="L8">
-        <v>1.0747370935216</v>
+        <v>1.05407444208668</v>
       </c>
       <c r="M8">
-        <v>1.085575127269152</v>
+        <v>1.064382550070931</v>
       </c>
       <c r="N8">
-        <v>1.077515008896831</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.020924231335087</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.051634709241484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041790475102711</v>
+        <v>1.022017908480821</v>
       </c>
       <c r="D9">
-        <v>1.057268010996939</v>
+        <v>1.040083428678801</v>
       </c>
       <c r="E9">
-        <v>1.052499451928867</v>
+        <v>1.035736914230319</v>
       </c>
       <c r="F9">
-        <v>1.063094819989122</v>
+        <v>1.045977149954783</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.064480146407471</v>
+        <v>1.055014728723893</v>
       </c>
       <c r="J9">
-        <v>1.065949157231518</v>
+        <v>1.046816417648831</v>
       </c>
       <c r="K9">
-        <v>1.069495589363266</v>
+        <v>1.052558011731169</v>
       </c>
       <c r="L9">
-        <v>1.064794548771573</v>
+        <v>1.048275622891756</v>
       </c>
       <c r="M9">
-        <v>1.075240933409106</v>
+        <v>1.05836585995606</v>
       </c>
       <c r="N9">
-        <v>1.067462927300864</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.019021544512913</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.048252787825067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031849086766082</v>
+        <v>1.015371039876859</v>
       </c>
       <c r="D10">
-        <v>1.049379044218021</v>
+        <v>1.035485877204038</v>
       </c>
       <c r="E10">
-        <v>1.044162744141188</v>
+        <v>1.030420305152882</v>
       </c>
       <c r="F10">
-        <v>1.0544996808244</v>
+        <v>1.040527758745422</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.060652690145986</v>
+        <v>1.053093292509508</v>
       </c>
       <c r="J10">
-        <v>1.058853671991869</v>
+        <v>1.042987802312439</v>
       </c>
       <c r="K10">
-        <v>1.062910525182657</v>
+        <v>1.049242678005854</v>
       </c>
       <c r="L10">
-        <v>1.057777920911973</v>
+        <v>1.044261207132269</v>
       </c>
       <c r="M10">
-        <v>1.067950031717963</v>
+        <v>1.054201896463132</v>
       </c>
       <c r="N10">
-        <v>1.060357365658311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.017701169595631</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.045925266882841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027398557661198</v>
+        <v>1.012444281824439</v>
       </c>
       <c r="D11">
-        <v>1.045853231411211</v>
+        <v>1.033476680916852</v>
       </c>
       <c r="E11">
-        <v>1.040439192418777</v>
+        <v>1.028090980063994</v>
       </c>
       <c r="F11">
-        <v>1.050660773030514</v>
+        <v>1.038141069798736</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.058929119308834</v>
+        <v>1.052246664466185</v>
       </c>
       <c r="J11">
-        <v>1.055674332268749</v>
+        <v>1.041308373683326</v>
       </c>
       <c r="K11">
-        <v>1.059959303461055</v>
+        <v>1.04779373402826</v>
       </c>
       <c r="L11">
-        <v>1.054636759239037</v>
+        <v>1.042501897706801</v>
       </c>
       <c r="M11">
-        <v>1.06468661752681</v>
+        <v>1.052377846612472</v>
       </c>
       <c r="N11">
-        <v>1.057173510908108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.0171245075788</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.044933222088619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025721973610013</v>
+        <v>1.011336104509729</v>
       </c>
       <c r="D12">
-        <v>1.044525987214586</v>
+        <v>1.032712459890858</v>
       </c>
       <c r="E12">
-        <v>1.03903785748933</v>
+        <v>1.027208590777588</v>
       </c>
       <c r="F12">
-        <v>1.04921603574558</v>
+        <v>1.037236527047688</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.058278366780119</v>
+        <v>1.05192111346695</v>
       </c>
       <c r="J12">
-        <v>1.054476263648881</v>
+        <v>1.040668329781331</v>
       </c>
       <c r="K12">
-        <v>1.058847122349577</v>
+        <v>1.047238675902306</v>
       </c>
       <c r="L12">
-        <v>1.053453515091813</v>
+        <v>1.041832444605861</v>
       </c>
       <c r="M12">
-        <v>1.063457404946638</v>
+        <v>1.051683491390135</v>
       </c>
       <c r="N12">
-        <v>1.055973740893381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.016903384186295</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.044540787539039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026082694580784</v>
+        <v>1.011572232208929</v>
       </c>
       <c r="D13">
-        <v>1.044811500758381</v>
+        <v>1.032874354856277</v>
       </c>
       <c r="E13">
-        <v>1.039339293828128</v>
+        <v>1.027396199187735</v>
       </c>
       <c r="F13">
-        <v>1.049526807702533</v>
+        <v>1.037428763519364</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.058418442438646</v>
+        <v>1.051989773810956</v>
       </c>
       <c r="J13">
-        <v>1.054734046101099</v>
+        <v>1.040803921469542</v>
       </c>
       <c r="K13">
-        <v>1.059086427912295</v>
+        <v>1.047355705332669</v>
       </c>
       <c r="L13">
-        <v>1.053708087880894</v>
+        <v>1.041974364915843</v>
       </c>
       <c r="M13">
-        <v>1.06372186396798</v>
+        <v>1.051830631463635</v>
       </c>
       <c r="N13">
-        <v>1.056231889426248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.016949959098952</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.044621068214057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027260458719723</v>
+        <v>1.012352017569942</v>
       </c>
       <c r="D14">
-        <v>1.045743886730042</v>
+        <v>1.033412649395103</v>
       </c>
       <c r="E14">
-        <v>1.040323736838349</v>
+        <v>1.028017338630007</v>
       </c>
       <c r="F14">
-        <v>1.050541741312523</v>
+        <v>1.038065544141958</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.058875546527912</v>
+        <v>1.052219259322965</v>
       </c>
       <c r="J14">
-        <v>1.055575655212738</v>
+        <v>1.041254749256542</v>
       </c>
       <c r="K14">
-        <v>1.059867701811485</v>
+        <v>1.047746991134237</v>
       </c>
       <c r="L14">
-        <v>1.054539294221278</v>
+        <v>1.042445851012114</v>
       </c>
       <c r="M14">
-        <v>1.06458536434242</v>
+        <v>1.052319689404035</v>
       </c>
       <c r="N14">
-        <v>1.05707469371936</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.017105866715211</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.044899120013959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027982960778248</v>
+        <v>1.012835134007559</v>
       </c>
       <c r="D15">
-        <v>1.046315993785047</v>
+        <v>1.033748071019957</v>
       </c>
       <c r="E15">
-        <v>1.040927830998447</v>
+        <v>1.028403031629959</v>
       </c>
       <c r="F15">
-        <v>1.051164547229049</v>
+        <v>1.038461115357665</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.059155768133622</v>
+        <v>1.052362790427774</v>
       </c>
       <c r="J15">
-        <v>1.056091896680045</v>
+        <v>1.041535615419922</v>
       </c>
       <c r="K15">
-        <v>1.060346924472222</v>
+        <v>1.04799187356515</v>
       </c>
       <c r="L15">
-        <v>1.055049212650935</v>
+        <v>1.042739408777995</v>
       </c>
       <c r="M15">
-        <v>1.065115105131177</v>
+        <v>1.052624310105026</v>
       </c>
       <c r="N15">
-        <v>1.057591668308764</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.017203527472878</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.045078051382474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032141252012078</v>
+        <v>1.01559893253241</v>
       </c>
       <c r="D16">
-        <v>1.049610635062634</v>
+        <v>1.035657912701431</v>
       </c>
       <c r="E16">
-        <v>1.044407371758763</v>
+        <v>1.030607780603867</v>
       </c>
       <c r="F16">
-        <v>1.054751888552232</v>
+        <v>1.040721327901565</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.060765632956074</v>
+        <v>1.053172103987196</v>
       </c>
       <c r="J16">
-        <v>1.059062333297333</v>
+        <v>1.0431321868331</v>
       </c>
       <c r="K16">
-        <v>1.063104203951572</v>
+        <v>1.049376998073817</v>
       </c>
       <c r="L16">
-        <v>1.057984136549138</v>
+        <v>1.044410429183093</v>
       </c>
       <c r="M16">
-        <v>1.068164284476944</v>
+        <v>1.054357676015271</v>
       </c>
       <c r="N16">
-        <v>1.060566323286762</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.017755316421608</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.046060481398043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034709542300352</v>
+        <v>1.017313865203573</v>
       </c>
       <c r="D17">
-        <v>1.051647123990393</v>
+        <v>1.036844814874529</v>
       </c>
       <c r="E17">
-        <v>1.046558767242255</v>
+        <v>1.031978092087013</v>
       </c>
       <c r="F17">
-        <v>1.056969955995442</v>
+        <v>1.042126132350103</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.061757321167669</v>
+        <v>1.053672229012114</v>
       </c>
       <c r="J17">
-        <v>1.060896262446145</v>
+        <v>1.044122579968706</v>
       </c>
       <c r="K17">
-        <v>1.064806385863833</v>
+        <v>1.050236255439759</v>
       </c>
       <c r="L17">
-        <v>1.059796894475679</v>
+        <v>1.045447736143525</v>
       </c>
       <c r="M17">
-        <v>1.070047754258707</v>
+        <v>1.055433765147736</v>
       </c>
       <c r="N17">
-        <v>1.06240285682532</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.018097583360673</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.046670541471707</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036193622635439</v>
+        <v>1.018296829693943</v>
       </c>
       <c r="D18">
-        <v>1.052824454858649</v>
+        <v>1.037521062040599</v>
       </c>
       <c r="E18">
-        <v>1.047802752742552</v>
+        <v>1.032762546160412</v>
       </c>
       <c r="F18">
-        <v>1.05825249942643</v>
+        <v>1.042929877897931</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.062329405596739</v>
+        <v>1.053954159358317</v>
       </c>
       <c r="J18">
-        <v>1.061955719252301</v>
+        <v>1.044685990438236</v>
       </c>
       <c r="K18">
-        <v>1.065789675695532</v>
+        <v>1.050722106565033</v>
       </c>
       <c r="L18">
-        <v>1.06084438878779</v>
+        <v>1.046038743557508</v>
       </c>
       <c r="M18">
-        <v>1.07113615929747</v>
+        <v>1.056046563026189</v>
       </c>
       <c r="N18">
-        <v>1.063463818181663</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.018290916416908</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.047002568713378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036697332586668</v>
+        <v>1.018639197006091</v>
       </c>
       <c r="D19">
-        <v>1.053224141911887</v>
+        <v>1.037760375528359</v>
       </c>
       <c r="E19">
-        <v>1.048225106581034</v>
+        <v>1.033037289394591</v>
       </c>
       <c r="F19">
-        <v>1.058687945449083</v>
+        <v>1.043211739157733</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.062523411439656</v>
+        <v>1.054055339916741</v>
       </c>
       <c r="J19">
-        <v>1.06231525970562</v>
+        <v>1.044885447081665</v>
       </c>
       <c r="K19">
-        <v>1.066123357822655</v>
+        <v>1.050896439119567</v>
       </c>
       <c r="L19">
-        <v>1.061199914784305</v>
+        <v>1.046247502709842</v>
       </c>
       <c r="M19">
-        <v>1.071505579079101</v>
+        <v>1.05626328509429</v>
       </c>
       <c r="N19">
-        <v>1.063823869223666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.018360431445023</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.047132127167143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034435443742817</v>
+        <v>1.017129716842843</v>
       </c>
       <c r="D20">
-        <v>1.051429723628013</v>
+        <v>1.036716932944398</v>
       </c>
       <c r="E20">
-        <v>1.046329077025466</v>
+        <v>1.031830726836015</v>
       </c>
       <c r="F20">
-        <v>1.056733146957942</v>
+        <v>1.041975021534032</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.061651583351426</v>
+        <v>1.053618293642543</v>
       </c>
       <c r="J20">
-        <v>1.060700565999805</v>
+        <v>1.044015920497663</v>
       </c>
       <c r="K20">
-        <v>1.064624753816299</v>
+        <v>1.050143487380348</v>
       </c>
       <c r="L20">
-        <v>1.059603429282063</v>
+        <v>1.045336047169823</v>
       </c>
       <c r="M20">
-        <v>1.069846737167682</v>
+        <v>1.055317872003983</v>
       </c>
       <c r="N20">
-        <v>1.062206882467581</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.018060617286077</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.046603636141671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026914297274861</v>
+        <v>1.012134335512518</v>
       </c>
       <c r="D21">
-        <v>1.045469817466368</v>
+        <v>1.033267359860734</v>
       </c>
       <c r="E21">
-        <v>1.040034356307426</v>
+        <v>1.027845856819757</v>
       </c>
       <c r="F21">
-        <v>1.05024339764954</v>
+        <v>1.037890202813473</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.058741236744692</v>
+        <v>1.052159475588315</v>
       </c>
       <c r="J21">
-        <v>1.055328303837108</v>
+        <v>1.041133342128526</v>
       </c>
       <c r="K21">
-        <v>1.059638085044784</v>
+        <v>1.047644740515065</v>
       </c>
       <c r="L21">
-        <v>1.054294988118832</v>
+        <v>1.042318211069174</v>
       </c>
       <c r="M21">
-        <v>1.064331564154475</v>
+        <v>1.052187614005815</v>
       </c>
       <c r="N21">
-        <v>1.056826991076405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.017065388236952</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.044840165474628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022048851796232</v>
+        <v>1.008916101580553</v>
       </c>
       <c r="D22">
-        <v>1.041620140569557</v>
+        <v>1.031045032707161</v>
       </c>
       <c r="E22">
-        <v>1.035970421064876</v>
+        <v>1.025283911010523</v>
       </c>
       <c r="F22">
-        <v>1.046053615400818</v>
+        <v>1.035263494227426</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.056850065812529</v>
+        <v>1.051207619219276</v>
       </c>
       <c r="J22">
-        <v>1.051850904381989</v>
+        <v>1.039269885636167</v>
       </c>
       <c r="K22">
-        <v>1.056409851459954</v>
+        <v>1.046025587974211</v>
       </c>
       <c r="L22">
-        <v>1.050861459754218</v>
+        <v>1.040370595232041</v>
       </c>
       <c r="M22">
-        <v>1.060764805488686</v>
+        <v>1.050167312894601</v>
       </c>
       <c r="N22">
-        <v>1.053344653315197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.016420058955066</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.043682058746395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02464161977977</v>
+        <v>1.010614321420058</v>
       </c>
       <c r="D23">
-        <v>1.043671030829523</v>
+        <v>1.032211118071686</v>
       </c>
       <c r="E23">
-        <v>1.038135270833199</v>
+        <v>1.026632725124909</v>
       </c>
       <c r="F23">
-        <v>1.048285497257181</v>
+        <v>1.036645854113327</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.057858633889641</v>
+        <v>1.051705442352655</v>
       </c>
       <c r="J23">
-        <v>1.053704161599219</v>
+        <v>1.040247956659088</v>
       </c>
       <c r="K23">
-        <v>1.058130352044779</v>
+        <v>1.046871697080933</v>
       </c>
       <c r="L23">
-        <v>1.052691091566751</v>
+        <v>1.041393385245647</v>
       </c>
       <c r="M23">
-        <v>1.062665385387331</v>
+        <v>1.051227866504891</v>
       </c>
       <c r="N23">
-        <v>1.055200542370247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.016756968862839</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.044270767863674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034559340108679</v>
+        <v>1.017190294099345</v>
       </c>
       <c r="D24">
-        <v>1.051527989918916</v>
+        <v>1.036749157135812</v>
       </c>
       <c r="E24">
-        <v>1.046432897706599</v>
+        <v>1.031875476374316</v>
       </c>
       <c r="F24">
-        <v>1.056840185347094</v>
+        <v>1.04201995254017</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.061699381300832</v>
+        <v>1.05362768422672</v>
       </c>
       <c r="J24">
-        <v>1.060789024376716</v>
+        <v>1.044042306657891</v>
       </c>
       <c r="K24">
-        <v>1.064706855005049</v>
+        <v>1.050160252666129</v>
       </c>
       <c r="L24">
-        <v>1.059690878260895</v>
+        <v>1.045365028097426</v>
       </c>
       <c r="M24">
-        <v>1.069937599554483</v>
+        <v>1.055347256755221</v>
       </c>
       <c r="N24">
-        <v>1.062295466465533</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.01806689841319</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.046588473486547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045525059103046</v>
+        <v>1.024563381348611</v>
       </c>
       <c r="D25">
-        <v>1.060236056098882</v>
+        <v>1.041861174354223</v>
       </c>
       <c r="E25">
-        <v>1.055638055148461</v>
+        <v>1.037784225858682</v>
       </c>
       <c r="F25">
-        <v>1.066330776178205</v>
+        <v>1.048076830910404</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.06590890646471</v>
+        <v>1.055753141301733</v>
       </c>
       <c r="J25">
-        <v>1.068611789504198</v>
+        <v>1.048291453284996</v>
       </c>
       <c r="K25">
-        <v>1.071966086111633</v>
+        <v>1.053842634517832</v>
       </c>
       <c r="L25">
-        <v>1.067429968432615</v>
+        <v>1.049822997519071</v>
       </c>
       <c r="M25">
-        <v>1.077979810710937</v>
+        <v>1.059971996440759</v>
       </c>
       <c r="N25">
-        <v>1.07012934081678</v>
+        <v>1.019533346911468</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.049189210060864</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_3/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030215002950589</v>
+        <v>1.027899281507001</v>
       </c>
       <c r="D2">
-        <v>1.045779487858577</v>
+        <v>1.042807593229841</v>
       </c>
       <c r="E2">
-        <v>1.042329847662301</v>
+        <v>1.040193654098232</v>
       </c>
       <c r="F2">
-        <v>1.052734493625398</v>
+        <v>1.050227756167478</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.057342786817564</v>
+        <v>1.055883603081668</v>
       </c>
       <c r="J2">
-        <v>1.05152807418226</v>
+        <v>1.049276389003784</v>
       </c>
       <c r="K2">
-        <v>1.056635860360937</v>
+        <v>1.053701104145677</v>
       </c>
       <c r="L2">
-        <v>1.053229353386045</v>
+        <v>1.051120049078088</v>
       </c>
       <c r="M2">
-        <v>1.063504971981846</v>
+        <v>1.061029029492228</v>
       </c>
       <c r="N2">
-        <v>1.020645202432585</v>
+        <v>1.01997250328053</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.051116607932939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.049050180544175</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026145862295696</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034238412133367</v>
+        <v>1.031704201587173</v>
       </c>
       <c r="D3">
-        <v>1.048587969415357</v>
+        <v>1.045365334057003</v>
       </c>
       <c r="E3">
-        <v>1.045581794347156</v>
+        <v>1.043241508862734</v>
       </c>
       <c r="F3">
-        <v>1.056067638570467</v>
+        <v>1.053337352189399</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.058467822784771</v>
+        <v>1.056871463373337</v>
       </c>
       <c r="J3">
-        <v>1.053837309170493</v>
+        <v>1.051366369173157</v>
       </c>
       <c r="K3">
-        <v>1.058634728478465</v>
+        <v>1.055448884647193</v>
       </c>
       <c r="L3">
-        <v>1.055662864928746</v>
+        <v>1.05334945975199</v>
       </c>
       <c r="M3">
-        <v>1.066030070650457</v>
+        <v>1.063330395001562</v>
       </c>
       <c r="N3">
-        <v>1.021440842392842</v>
+        <v>1.020542855119928</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.052527315762984</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.050283078193954</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026520394101903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036797401408269</v>
+        <v>1.034125697151195</v>
       </c>
       <c r="D4">
-        <v>1.050378552882007</v>
+        <v>1.046997427905387</v>
       </c>
       <c r="E4">
-        <v>1.047655702968706</v>
+        <v>1.045186829686203</v>
       </c>
       <c r="F4">
-        <v>1.058193365217791</v>
+        <v>1.055322082383191</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.059176484863502</v>
+        <v>1.057493386727996</v>
       </c>
       <c r="J4">
-        <v>1.055304468825981</v>
+        <v>1.052694990934011</v>
       </c>
       <c r="K4">
-        <v>1.059904720793937</v>
+        <v>1.056559887835071</v>
       </c>
       <c r="L4">
-        <v>1.057211074658232</v>
+        <v>1.054768842432109</v>
       </c>
       <c r="M4">
-        <v>1.067636736261379</v>
+        <v>1.064795699965038</v>
       </c>
       <c r="N4">
-        <v>1.02194621983998</v>
+        <v>1.02090543121742</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.053426159450166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.051069591064425</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026756221924959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037867227319116</v>
+        <v>1.03513829735987</v>
       </c>
       <c r="D5">
-        <v>1.051130154554708</v>
+        <v>1.047682986347755</v>
       </c>
       <c r="E5">
-        <v>1.048524706683011</v>
+        <v>1.046002283136912</v>
       </c>
       <c r="F5">
-        <v>1.059084340995335</v>
+        <v>1.056154334161736</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.059472776214314</v>
+        <v>1.057753493845861</v>
       </c>
       <c r="J5">
-        <v>1.055919185309216</v>
+        <v>1.053251930867153</v>
       </c>
       <c r="K5">
-        <v>1.060438163917031</v>
+        <v>1.057027019325055</v>
       </c>
       <c r="L5">
-        <v>1.05785991680314</v>
+        <v>1.05536398507606</v>
       </c>
       <c r="M5">
-        <v>1.068310318275705</v>
+        <v>1.065410353501187</v>
       </c>
       <c r="N5">
-        <v>1.022158421904834</v>
+        <v>1.021057785695072</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.053810375552251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.051407636526627</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026855370335043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038051534616269</v>
+        <v>1.035312669011433</v>
       </c>
       <c r="D6">
-        <v>1.051262144789705</v>
+        <v>1.047803596912095</v>
       </c>
       <c r="E6">
-        <v>1.048675297217897</v>
+        <v>1.046143574685976</v>
       </c>
       <c r="F6">
-        <v>1.059239044043303</v>
+        <v>1.056298873729022</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.059525798323662</v>
+        <v>1.057800240051934</v>
       </c>
       <c r="J6">
-        <v>1.056027189739411</v>
+        <v>1.05334990824965</v>
       </c>
       <c r="K6">
-        <v>1.060533503913302</v>
+        <v>1.057110934178316</v>
       </c>
       <c r="L6">
-        <v>1.057973539152907</v>
+        <v>1.055468283866456</v>
       </c>
       <c r="M6">
-        <v>1.068428513573758</v>
+        <v>1.065518351151934</v>
       </c>
       <c r="N6">
-        <v>1.022196300569558</v>
+        <v>1.02108503741903</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.053886371150425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.051476427653935</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026873803114532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036825954780415</v>
+        <v>1.034161894202187</v>
       </c>
       <c r="D7">
-        <v>1.05040516837206</v>
+        <v>1.047029399411026</v>
       </c>
       <c r="E7">
-        <v>1.047681061752472</v>
+        <v>1.045218968640718</v>
       </c>
       <c r="F7">
-        <v>1.058220169034518</v>
+        <v>1.055355125762789</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.059189989834192</v>
+        <v>1.057510700690043</v>
       </c>
       <c r="J7">
-        <v>1.055326595606472</v>
+        <v>1.052724555689509</v>
       </c>
       <c r="K7">
-        <v>1.059928241458004</v>
+        <v>1.056588692522677</v>
       </c>
       <c r="L7">
-        <v>1.057233340628751</v>
+        <v>1.054797804800525</v>
       </c>
       <c r="M7">
-        <v>1.067660475820096</v>
+        <v>1.064825601275775</v>
       </c>
       <c r="N7">
-        <v>1.021955484904494</v>
+        <v>1.020940767269638</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.053462538210765</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.0511117156396</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026764904820807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031602065016282</v>
+        <v>1.029239458388768</v>
       </c>
       <c r="D8">
-        <v>1.046754959550263</v>
+        <v>1.043718523364683</v>
       </c>
       <c r="E8">
-        <v>1.043452571978353</v>
+        <v>1.041271581557356</v>
       </c>
       <c r="F8">
-        <v>1.05388619008881</v>
+        <v>1.05132659799413</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.057739030208032</v>
+        <v>1.056247481756057</v>
       </c>
       <c r="J8">
-        <v>1.052331652125913</v>
+        <v>1.050032196758435</v>
       </c>
       <c r="K8">
-        <v>1.057336767900861</v>
+        <v>1.054337155513395</v>
       </c>
       <c r="L8">
-        <v>1.05407444208668</v>
+        <v>1.051920082826251</v>
       </c>
       <c r="M8">
-        <v>1.064382550070931</v>
+        <v>1.061853462315457</v>
       </c>
       <c r="N8">
-        <v>1.020924231335087</v>
+        <v>1.02025959824283</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.051634709241484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.049524703239888</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026287337372971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022017908480821</v>
+        <v>1.020189912353383</v>
       </c>
       <c r="D9">
-        <v>1.040083428678801</v>
+        <v>1.037654048922381</v>
       </c>
       <c r="E9">
-        <v>1.035736914230319</v>
+        <v>1.03405409178869</v>
       </c>
       <c r="F9">
-        <v>1.045977149954783</v>
+        <v>1.043961643583865</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.055014728723893</v>
+        <v>1.053855691460279</v>
       </c>
       <c r="J9">
-        <v>1.046816417648831</v>
+        <v>1.045049318336381</v>
       </c>
       <c r="K9">
-        <v>1.052558011731169</v>
+        <v>1.050164389320448</v>
       </c>
       <c r="L9">
-        <v>1.048275622891756</v>
+        <v>1.046617811779306</v>
       </c>
       <c r="M9">
-        <v>1.05836585995606</v>
+        <v>1.056379581692144</v>
       </c>
       <c r="N9">
-        <v>1.019021544512913</v>
+        <v>1.018908236912678</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.048252787825067</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.046570962387314</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025379042068595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015371039876859</v>
+        <v>1.013966899975491</v>
       </c>
       <c r="D10">
-        <v>1.035485877204038</v>
+        <v>1.033517149555098</v>
       </c>
       <c r="E10">
-        <v>1.030420305152882</v>
+        <v>1.029129804540995</v>
       </c>
       <c r="F10">
-        <v>1.040527758745422</v>
+        <v>1.038934284720913</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.053093292509508</v>
+        <v>1.0521908588869</v>
       </c>
       <c r="J10">
-        <v>1.042987802312439</v>
+        <v>1.041637126316958</v>
       </c>
       <c r="K10">
-        <v>1.049242678005854</v>
+        <v>1.047306510075651</v>
       </c>
       <c r="L10">
-        <v>1.044261207132269</v>
+        <v>1.042992302631751</v>
       </c>
       <c r="M10">
-        <v>1.054201896463132</v>
+        <v>1.052634436433723</v>
       </c>
       <c r="N10">
-        <v>1.017701169595631</v>
+        <v>1.018095582437182</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.045925266882841</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.044568567822905</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024749862869575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.012444281824439</v>
+        <v>1.011298996228168</v>
       </c>
       <c r="D11">
-        <v>1.033476680916852</v>
+        <v>1.031766535805346</v>
       </c>
       <c r="E11">
-        <v>1.028090980063994</v>
+        <v>1.027038404690591</v>
       </c>
       <c r="F11">
-        <v>1.038141069798736</v>
+        <v>1.036795427050246</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052246664466185</v>
+        <v>1.051495152398389</v>
       </c>
       <c r="J11">
-        <v>1.041308373683326</v>
+        <v>1.040209162777917</v>
       </c>
       <c r="K11">
-        <v>1.04779373402826</v>
+        <v>1.046113256689633</v>
       </c>
       <c r="L11">
-        <v>1.042501897706801</v>
+        <v>1.041467816176117</v>
       </c>
       <c r="M11">
-        <v>1.052377846612472</v>
+        <v>1.051055267179199</v>
       </c>
       <c r="N11">
-        <v>1.0171245075788</v>
+        <v>1.01794009605204</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.044933222088619</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.043760532212495</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024493206332552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011336104509729</v>
+        <v>1.010296085684256</v>
       </c>
       <c r="D12">
-        <v>1.032712459890858</v>
+        <v>1.031105848173419</v>
       </c>
       <c r="E12">
-        <v>1.027208590777588</v>
+        <v>1.026252779348188</v>
       </c>
       <c r="F12">
-        <v>1.037236527047688</v>
+        <v>1.03599106504624</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.05192111346695</v>
+        <v>1.051230717315716</v>
       </c>
       <c r="J12">
-        <v>1.040668329781331</v>
+        <v>1.039670999552336</v>
       </c>
       <c r="K12">
-        <v>1.047238675902306</v>
+        <v>1.045660425515618</v>
       </c>
       <c r="L12">
-        <v>1.041832444605861</v>
+        <v>1.040893727751683</v>
       </c>
       <c r="M12">
-        <v>1.051683491390135</v>
+        <v>1.05045975770432</v>
       </c>
       <c r="N12">
-        <v>1.016903384186295</v>
+        <v>1.017896851990215</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.044540787539039</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.043440379331816</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024394897937713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011572232208929</v>
+        <v>1.010509491297303</v>
       </c>
       <c r="D13">
-        <v>1.032874354856277</v>
+        <v>1.031245435286426</v>
       </c>
       <c r="E13">
-        <v>1.027396199187735</v>
+        <v>1.026419507514747</v>
       </c>
       <c r="F13">
-        <v>1.037428763519364</v>
+        <v>1.036161696027559</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051989773810956</v>
+        <v>1.05128620395624</v>
       </c>
       <c r="J13">
-        <v>1.040803921469542</v>
+        <v>1.039784615267412</v>
       </c>
       <c r="K13">
-        <v>1.047355705332669</v>
+        <v>1.045755434290294</v>
       </c>
       <c r="L13">
-        <v>1.041974364915843</v>
+        <v>1.041015075208113</v>
       </c>
       <c r="M13">
-        <v>1.051830631463635</v>
+        <v>1.050585585728338</v>
       </c>
       <c r="N13">
-        <v>1.016949959098952</v>
+        <v>1.017904732573521</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.044621068214057</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.043504846968504</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024415257956059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.012352017569942</v>
+        <v>1.011215360767576</v>
       </c>
       <c r="D14">
-        <v>1.033412649395103</v>
+        <v>1.031711010226345</v>
       </c>
       <c r="E14">
-        <v>1.028017338630007</v>
+        <v>1.026972697809018</v>
       </c>
       <c r="F14">
-        <v>1.038065544141958</v>
+        <v>1.036728122120472</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052219259322965</v>
+        <v>1.051472765099991</v>
       </c>
       <c r="J14">
-        <v>1.041254749256542</v>
+        <v>1.040163896443785</v>
       </c>
       <c r="K14">
-        <v>1.047746991134237</v>
+        <v>1.046074914991002</v>
       </c>
       <c r="L14">
-        <v>1.042445851012114</v>
+        <v>1.041419591754905</v>
       </c>
       <c r="M14">
-        <v>1.052319689404035</v>
+        <v>1.05100522364956</v>
       </c>
       <c r="N14">
-        <v>1.017105866715211</v>
+        <v>1.017935898884668</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.044899120013959</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.043732266275746</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024484768300742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.012835134007559</v>
+        <v>1.011653578876772</v>
       </c>
       <c r="D15">
-        <v>1.033748071019957</v>
+        <v>1.032002119372444</v>
       </c>
       <c r="E15">
-        <v>1.028403031629959</v>
+        <v>1.027317104587682</v>
       </c>
       <c r="F15">
-        <v>1.038461115357665</v>
+        <v>1.037080898187325</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052362790427774</v>
+        <v>1.051590176636888</v>
       </c>
       <c r="J15">
-        <v>1.041535615419922</v>
+        <v>1.040401258023089</v>
       </c>
       <c r="K15">
-        <v>1.04799187356515</v>
+        <v>1.046276024901109</v>
       </c>
       <c r="L15">
-        <v>1.042739408777995</v>
+        <v>1.041672442194032</v>
       </c>
       <c r="M15">
-        <v>1.052624310105026</v>
+        <v>1.051267600977402</v>
       </c>
       <c r="N15">
-        <v>1.017203527472878</v>
+        <v>1.017958656774613</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.045078051382474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043880819646537</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02452906707966</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01559893253241</v>
+        <v>1.014175653539714</v>
       </c>
       <c r="D16">
-        <v>1.035657912701431</v>
+        <v>1.033670129700651</v>
       </c>
       <c r="E16">
-        <v>1.030607780603867</v>
+        <v>1.029299581643436</v>
       </c>
       <c r="F16">
-        <v>1.040721327901565</v>
+        <v>1.039109481981935</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053172103987196</v>
+        <v>1.052258342793722</v>
       </c>
       <c r="J16">
-        <v>1.0431321868331</v>
+        <v>1.041762894907429</v>
       </c>
       <c r="K16">
-        <v>1.049376998073817</v>
+        <v>1.047421980992979</v>
       </c>
       <c r="L16">
-        <v>1.044410429183093</v>
+        <v>1.043124048941927</v>
       </c>
       <c r="M16">
-        <v>1.054357676015271</v>
+        <v>1.052772055580902</v>
       </c>
       <c r="N16">
-        <v>1.017755316421608</v>
+        <v>1.018120393595934</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.046060481398043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.044694450794973</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024779106905834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017313865203573</v>
+        <v>1.015755272019517</v>
       </c>
       <c r="D17">
-        <v>1.036844814874529</v>
+        <v>1.034718351585547</v>
       </c>
       <c r="E17">
-        <v>1.031978092087013</v>
+        <v>1.03054528680924</v>
       </c>
       <c r="F17">
-        <v>1.042126132350103</v>
+        <v>1.040383243109137</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053672229012114</v>
+        <v>1.052678675055793</v>
       </c>
       <c r="J17">
-        <v>1.044122579968706</v>
+        <v>1.042621177870573</v>
       </c>
       <c r="K17">
-        <v>1.050236255439759</v>
+        <v>1.048143846269122</v>
       </c>
       <c r="L17">
-        <v>1.045447736143525</v>
+        <v>1.044038135383824</v>
       </c>
       <c r="M17">
-        <v>1.055433765147736</v>
+        <v>1.053718412872453</v>
       </c>
       <c r="N17">
-        <v>1.018097583360673</v>
+        <v>1.018259396761996</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.046670541471707</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.04520761824613</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024937282479827</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018296829693943</v>
+        <v>1.016666509418246</v>
       </c>
       <c r="D18">
-        <v>1.037521062040599</v>
+        <v>1.035319503061047</v>
       </c>
       <c r="E18">
-        <v>1.032762546160412</v>
+        <v>1.031263605815667</v>
       </c>
       <c r="F18">
-        <v>1.042929877897931</v>
+        <v>1.041116862422535</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053954159358317</v>
+        <v>1.052917957651465</v>
       </c>
       <c r="J18">
-        <v>1.044685990438236</v>
+        <v>1.043114332955406</v>
       </c>
       <c r="K18">
-        <v>1.050722106565033</v>
+        <v>1.048555207629488</v>
       </c>
       <c r="L18">
-        <v>1.046038743557508</v>
+        <v>1.04456366058687</v>
       </c>
       <c r="M18">
-        <v>1.056046563026189</v>
+        <v>1.054261699693389</v>
       </c>
       <c r="N18">
-        <v>1.018290916416908</v>
+        <v>1.01835170212647</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.047002568713378</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.045485838458</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025026372350332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018639197006091</v>
+        <v>1.016984756980763</v>
       </c>
       <c r="D19">
-        <v>1.037760375528359</v>
+        <v>1.035533392248683</v>
       </c>
       <c r="E19">
-        <v>1.033037289394591</v>
+        <v>1.031516071666261</v>
       </c>
       <c r="F19">
-        <v>1.043211739157733</v>
+        <v>1.041375049514317</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.054055339916741</v>
+        <v>1.053004711357605</v>
       </c>
       <c r="J19">
-        <v>1.044885447081665</v>
+        <v>1.043290137471353</v>
       </c>
       <c r="K19">
-        <v>1.050896439119567</v>
+        <v>1.048704310376745</v>
       </c>
       <c r="L19">
-        <v>1.046247502709842</v>
+        <v>1.044750352378528</v>
       </c>
       <c r="M19">
-        <v>1.05626328509429</v>
+        <v>1.054454945148654</v>
       </c>
       <c r="N19">
-        <v>1.018360431445023</v>
+        <v>1.018388546442364</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.047132127167143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.045598182908198</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025059725966035</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017129716842843</v>
+        <v>1.015585077944702</v>
       </c>
       <c r="D20">
-        <v>1.036716932944398</v>
+        <v>1.034604910965446</v>
       </c>
       <c r="E20">
-        <v>1.031830726836015</v>
+        <v>1.03041078383561</v>
       </c>
       <c r="F20">
-        <v>1.041975021534032</v>
+        <v>1.040245708037156</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.053618293642543</v>
+        <v>1.052633007701264</v>
       </c>
       <c r="J20">
-        <v>1.044015920497663</v>
+        <v>1.042528164385673</v>
       </c>
       <c r="K20">
-        <v>1.050143487380348</v>
+        <v>1.048065394167887</v>
       </c>
       <c r="L20">
-        <v>1.045336047169823</v>
+        <v>1.043939173683027</v>
       </c>
       <c r="M20">
-        <v>1.055317872003983</v>
+        <v>1.053615967962648</v>
       </c>
       <c r="N20">
-        <v>1.018060617286077</v>
+        <v>1.018242695462958</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.046603636141671</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.045150704912112</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024919966212168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.012134335512518</v>
+        <v>1.011042185929352</v>
       </c>
       <c r="D21">
-        <v>1.033267359860734</v>
+        <v>1.03160465416833</v>
       </c>
       <c r="E21">
-        <v>1.027845856819757</v>
+        <v>1.026841869359829</v>
       </c>
       <c r="F21">
-        <v>1.037890202813473</v>
+        <v>1.036593037124592</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052159475588315</v>
+        <v>1.051437728686009</v>
       </c>
       <c r="J21">
-        <v>1.041133342128526</v>
+        <v>1.040085384089512</v>
       </c>
       <c r="K21">
-        <v>1.047644740515065</v>
+        <v>1.046011024553803</v>
       </c>
       <c r="L21">
-        <v>1.042318211069174</v>
+        <v>1.04133195414566</v>
       </c>
       <c r="M21">
-        <v>1.052187614005815</v>
+        <v>1.050912794569031</v>
       </c>
       <c r="N21">
-        <v>1.017065388236952</v>
+        <v>1.017998713410579</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.044840165474628</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.043701748759959</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024474557764948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.008916101580553</v>
+        <v>1.008116638441934</v>
       </c>
       <c r="D22">
-        <v>1.031045032707161</v>
+        <v>1.029673132750271</v>
       </c>
       <c r="E22">
-        <v>1.025283911010523</v>
+        <v>1.024549376762702</v>
       </c>
       <c r="F22">
-        <v>1.035263494227426</v>
+        <v>1.034246381721206</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051207619219276</v>
+        <v>1.050656716864024</v>
       </c>
       <c r="J22">
-        <v>1.039269885636167</v>
+        <v>1.038504672097591</v>
       </c>
       <c r="K22">
-        <v>1.046025587974211</v>
+        <v>1.044678820261916</v>
       </c>
       <c r="L22">
-        <v>1.040370595232041</v>
+        <v>1.039649704171768</v>
       </c>
       <c r="M22">
-        <v>1.050167312894601</v>
+        <v>1.049168627841027</v>
       </c>
       <c r="N22">
-        <v>1.016420058955066</v>
+        <v>1.017828271572807</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.043682058746395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.042745221116665</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024182218686486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010614321420058</v>
+        <v>1.009644620840408</v>
       </c>
       <c r="D23">
-        <v>1.032211118071686</v>
+        <v>1.030673286568192</v>
       </c>
       <c r="E23">
-        <v>1.026632725124909</v>
+        <v>1.025741604514582</v>
       </c>
       <c r="F23">
-        <v>1.036645854113327</v>
+        <v>1.035467206092447</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051705442352655</v>
+        <v>1.051055879343263</v>
       </c>
       <c r="J23">
-        <v>1.040247956659088</v>
+        <v>1.039318570315279</v>
       </c>
       <c r="K23">
-        <v>1.046871697080933</v>
+        <v>1.045361315117564</v>
       </c>
       <c r="L23">
-        <v>1.041393385245647</v>
+        <v>1.040518383234975</v>
       </c>
       <c r="M23">
-        <v>1.051227866504891</v>
+        <v>1.05007001447941</v>
       </c>
       <c r="N23">
-        <v>1.016756968862839</v>
+        <v>1.017870417525255</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.044270767863674</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.043217305230725</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024328962469166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017190294099345</v>
+        <v>1.015641368328222</v>
       </c>
       <c r="D24">
-        <v>1.036749157135812</v>
+        <v>1.034632429669348</v>
       </c>
       <c r="E24">
-        <v>1.031875476374316</v>
+        <v>1.030451630864995</v>
       </c>
       <c r="F24">
-        <v>1.04201995254017</v>
+        <v>1.040286400271059</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05362768422672</v>
+        <v>1.052639903385832</v>
       </c>
       <c r="J24">
-        <v>1.044042306657891</v>
+        <v>1.042550332587294</v>
       </c>
       <c r="K24">
-        <v>1.050160252666129</v>
+        <v>1.048077483650599</v>
       </c>
       <c r="L24">
-        <v>1.045365028097426</v>
+        <v>1.043964283482651</v>
       </c>
       <c r="M24">
-        <v>1.055347256755221</v>
+        <v>1.053641143225585</v>
       </c>
       <c r="N24">
-        <v>1.01806689841319</v>
+        <v>1.018242650262744</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.046588473486547</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.045129554452028</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024919950649473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024563381348611</v>
+        <v>1.022579565515537</v>
       </c>
       <c r="D25">
-        <v>1.041861174354223</v>
+        <v>1.03926037802754</v>
       </c>
       <c r="E25">
-        <v>1.037784225858682</v>
+        <v>1.035956751865576</v>
       </c>
       <c r="F25">
-        <v>1.048076830910404</v>
+        <v>1.045905189121568</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.055753141301733</v>
+        <v>1.054498797455258</v>
       </c>
       <c r="J25">
-        <v>1.048291453284996</v>
+        <v>1.046370219879553</v>
       </c>
       <c r="K25">
-        <v>1.053842634517832</v>
+        <v>1.051278333143436</v>
       </c>
       <c r="L25">
-        <v>1.049822997519071</v>
+        <v>1.048021398298374</v>
       </c>
       <c r="M25">
-        <v>1.059971996440759</v>
+        <v>1.057830357471524</v>
       </c>
       <c r="N25">
-        <v>1.019533346911468</v>
+        <v>1.019237860549464</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.049189210060864</v>
+        <v>1.047389522349501</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025625355013157</v>
       </c>
     </row>
   </sheetData>
